--- a/xlsx/country_comparison/reparations_support_mean.xlsx
+++ b/xlsx/country_comparison/reparations_support_mean.xlsx
@@ -408,7 +408,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.217363094278549</v>
+        <v>-0.217100919606968</v>
       </c>
       <c r="C2" t="n">
         <v>-0.0845269425983649</v>
@@ -429,7 +429,7 @@
         <v>-0.215396014119644</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.349758479016526</v>
+        <v>-0.348708569004081</v>
       </c>
     </row>
   </sheetData>
